--- a/Discharge/RatingCurves/Stn6.xlsx
+++ b/Discharge/RatingCurves/Stn6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Discharge\RatingCurves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4C2050-53F6-4FA9-87A3-69DC81C30407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAED1B58-0E12-48D6-A3FB-08994031564A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B13BB1D9-1E06-4014-8AD2-C3B29230488C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>Time_rounded</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Discharge</t>
   </si>
   <si>
     <t>Station 6</t>
@@ -66,40 +60,35 @@
     <t>used 14:15</t>
   </si>
   <si>
-    <t>missing baro data</t>
+    <t>check to see if I wrote adjustments for the last download, because I may have changed string lengths.</t>
   </si>
   <si>
-    <r>
-      <t>y = 0.0002x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 0.0125x + 0.3121</t>
-    </r>
+    <t>missing baro data, used ave july 26 14:15 and july 28 14:30 (0.6093949+ 0.5092278)/2</t>
+  </si>
+  <si>
+    <t>Station 5 discharge but station 6 wl</t>
+  </si>
+  <si>
+    <t>Discharge (station 5)</t>
+  </si>
+  <si>
+    <t>Level (stn 6)</t>
+  </si>
+  <si>
+    <t>Discharge (station 6)</t>
+  </si>
+  <si>
+    <t>used 13:45</t>
+  </si>
+  <si>
+    <t>used 14:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,21 +110,19 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -158,6 +145,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -297,46 +287,73 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$12</c:f>
+              <c:f>Sheet1!$D$3:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>37.94567</c:v>
+                  <c:v>0.37945820000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.313110000000002</c:v>
+                  <c:v>0.3931327</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.59695</c:v>
+                  <c:v>0.49597140000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.626840000000001</c:v>
+                  <c:v>0.3862699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.305289999999999</c:v>
+                  <c:v>0.37305440000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.532719999999998</c:v>
+                  <c:v>0.61532960000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.023929999999993</c:v>
+                  <c:v>0.91024289999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.939250000000001</c:v>
+                  <c:v>0.60939489999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55931134999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>115.3819</c:v>
+                  <c:v>1.1376299999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.37945820000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4904037</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3862699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.37890760000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.62859620000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.93225860000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.60939489999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.50922780000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$12</c:f>
+              <c:f>Sheet1!$E$3:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>5.5524999999999998E-2</c:v>
                 </c:pt>
@@ -366,6 +383,33 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.1282000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7079999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16736999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0860000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.4549999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.21695999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.78110000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13866000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1770999999999996E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1125,15 +1169,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>530225</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1458,10 +1502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C451173-A74F-414A-ACF4-91523E4B1458}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1469,12 +1513,12 @@
     <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1485,13 +1529,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44358</v>
       </c>
@@ -1502,16 +1546,16 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D3" s="4">
-        <v>37.94567</v>
+        <v>0.37945820000000002</v>
       </c>
       <c r="E3">
         <v>5.5524999999999998E-2</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44375</v>
       </c>
@@ -1522,16 +1566,16 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D4" s="4">
-        <v>39.313110000000002</v>
+        <v>0.3931327</v>
       </c>
       <c r="E4">
         <v>7.3029999999999998E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44386</v>
       </c>
@@ -1542,13 +1586,13 @@
         <v>0.65625</v>
       </c>
       <c r="D5" s="4">
-        <v>49.59695</v>
+        <v>0.49597140000000001</v>
       </c>
       <c r="E5">
         <v>0.13822000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44391</v>
       </c>
@@ -1559,13 +1603,13 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D6" s="4">
-        <v>38.626840000000001</v>
+        <v>0.3862699</v>
       </c>
       <c r="E6">
         <v>5.9409999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44393</v>
       </c>
@@ -1576,13 +1620,13 @@
         <v>0.59375</v>
       </c>
       <c r="D7" s="4">
-        <v>37.305289999999999</v>
+        <v>0.37305440000000001</v>
       </c>
       <c r="E7">
         <v>7.9015000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>44398</v>
       </c>
@@ -1593,13 +1637,13 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D8" s="4">
-        <v>61.532719999999998</v>
+        <v>0.61532960000000003</v>
       </c>
       <c r="E8">
         <v>0.249138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>44400</v>
       </c>
@@ -1610,13 +1654,13 @@
         <v>0.40625</v>
       </c>
       <c r="D9" s="4">
-        <v>91.023929999999993</v>
+        <v>0.91024289999999997</v>
       </c>
       <c r="E9">
         <v>0.48200799999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>44403</v>
       </c>
@@ -1627,33 +1671,40 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D10" s="4">
-        <v>60.939250000000001</v>
+        <v>0.60939489999999996</v>
       </c>
       <c r="E10">
         <v>0.15804499999999999</v>
       </c>
       <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>44405</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D11" s="7">
+        <f>(0.6093949+ 0.5092278)/2</f>
+        <v>0.55931134999999998</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.1160405</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>44405</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="E11">
-        <v>0.1160405</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>44396</v>
       </c>
@@ -1664,22 +1715,188 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D12" s="4">
-        <v>115.3819</v>
+        <v>1.1376299999999999</v>
       </c>
       <c r="E12">
         <v>1.1282000000000001</v>
       </c>
       <c r="F12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>44358</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.37945820000000002</v>
+      </c>
+      <c r="E18">
+        <v>4.7079999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.4904037</v>
+      </c>
+      <c r="E19">
+        <v>0.16736999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>44391</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.60902777777777783</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.3862699</v>
+      </c>
+      <c r="E20">
+        <v>5.0860000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>44393</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.37890760000000001</v>
+      </c>
+      <c r="E21">
+        <v>6.4549999999999996E-2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.62859620000000005</v>
+      </c>
+      <c r="E22">
+        <v>0.21695999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>44400</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.93225860000000005</v>
+      </c>
+      <c r="E23">
+        <v>0.78110000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>44403</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.60939489999999996</v>
+      </c>
+      <c r="E24">
+        <v>0.13866000000000001</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>44405</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.50922780000000001</v>
+      </c>
+      <c r="E25">
+        <v>8.1770999999999996E-2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Discharge/RatingCurves/Stn6.xlsx
+++ b/Discharge/RatingCurves/Stn6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Discharge\RatingCurves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Discharge/RatingCurves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAED1B58-0E12-48D6-A3FB-08994031564A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{FAED1B58-0E12-48D6-A3FB-08994031564A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AE3AF4B-1745-4545-9E15-8DE5A597DE73}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B13BB1D9-1E06-4014-8AD2-C3B29230488C}"/>
+    <workbookView xWindow="14800" yWindow="1080" windowWidth="19420" windowHeight="17400" xr2:uid="{B13BB1D9-1E06-4014-8AD2-C3B29230488C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +109,12 @@
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -137,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -148,6 +154,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -205,7 +212,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -280,17 +287,17 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-EC"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$26</c:f>
+              <c:f>Sheet1!$D$3:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.37945820000000002</c:v>
                 </c:pt>
@@ -344,16 +351,22 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.50922780000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5966688</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.55637959999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$26</c:f>
+              <c:f>Sheet1!$E$3:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>5.5524999999999998E-2</c:v>
                 </c:pt>
@@ -410,6 +423,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>8.1770999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.12096</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.12222250000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -487,7 +506,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1814409039"/>
@@ -549,7 +568,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1814409871"/>
@@ -597,7 +616,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1502,23 +1521,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C451173-A74F-414A-ACF4-91523E4B1458}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44358</v>
       </c>
@@ -1555,7 +1574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44375</v>
       </c>
@@ -1575,7 +1594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44386</v>
       </c>
@@ -1592,7 +1611,7 @@
         <v>0.13822000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44391</v>
       </c>
@@ -1609,7 +1628,7 @@
         <v>5.9409999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44393</v>
       </c>
@@ -1626,7 +1645,7 @@
         <v>7.9015000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44398</v>
       </c>
@@ -1643,7 +1662,7 @@
         <v>0.249138</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44400</v>
       </c>
@@ -1660,7 +1679,7 @@
         <v>0.48200799999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44403</v>
       </c>
@@ -1680,7 +1699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>44405</v>
       </c>
@@ -1704,7 +1723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44396</v>
       </c>
@@ -1724,12 +1743,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1743,7 +1762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44358</v>
       </c>
@@ -1760,7 +1779,7 @@
         <v>4.7079999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44386</v>
       </c>
@@ -1777,7 +1796,7 @@
         <v>0.16736999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44391</v>
       </c>
@@ -1794,7 +1813,7 @@
         <v>5.0860000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44393</v>
       </c>
@@ -1814,7 +1833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44398</v>
       </c>
@@ -1831,7 +1850,7 @@
         <v>0.21695999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44400</v>
       </c>
@@ -1848,7 +1867,7 @@
         <v>0.78110000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44403</v>
       </c>
@@ -1868,7 +1887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44405</v>
       </c>
@@ -1888,11 +1907,46 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>44740</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.5966688</v>
+      </c>
+      <c r="E27">
+        <v>0.12096</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>44768</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.55637959999999997</v>
+      </c>
+      <c r="E28">
+        <v>0.12222250000000003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
